--- a/2024每日记录.xlsx
+++ b/2024每日记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>多邻国</t>
   </si>
@@ -34,9 +34,6 @@
     <t>leetcode</t>
   </si>
   <si>
-    <t>五十音</t>
-  </si>
-  <si>
     <t>动感单车</t>
   </si>
   <si>
@@ -113,6 +110,21 @@
   </si>
   <si>
     <t>day57</t>
+  </si>
+  <si>
+    <t>0～6</t>
+  </si>
+  <si>
+    <t>day58</t>
+  </si>
+  <si>
+    <t>day59</t>
+  </si>
+  <si>
+    <t>day60</t>
+  </si>
+  <si>
+    <t>7～27</t>
   </si>
 </sst>
 </file>
@@ -1266,13 +1278,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.23076923076923" style="1"/>
     <col min="2" max="2" width="13.2980769230769" style="1" customWidth="1"/>
@@ -1280,12 +1292,10 @@
     <col min="4" max="4" width="25.3076923076923" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.3269230769231" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.23076923076923" style="1"/>
-    <col min="8" max="8" width="13.4615384615385" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.23076923076923" style="1"/>
+    <col min="7" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,58 +1317,55 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>45459</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>45460</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>45461</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1367,50 +1374,47 @@
         <v>45462</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>45463</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>45464</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>30</v>
@@ -1419,9 +1423,6 @@
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1430,99 +1431,98 @@
         <v>45465</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>45466</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>30</v>
       </c>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>45468</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
         <v>58</v>
       </c>
-      <c r="I10" s="1">
+      <c r="H10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>45469</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>45</v>
       </c>
-      <c r="I11" s="1">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>45470</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1531,13 +1531,13 @@
         <v>45471</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>8</v>
@@ -1548,13 +1548,13 @@
         <v>45472</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1562,30 +1562,30 @@
         <v>45481</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>45482</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1">
         <v>65</v>
@@ -1593,7 +1593,7 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="I18" s="1">
+      <c r="H18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1602,13 +1602,13 @@
         <v>45483</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1">
         <v>55</v>
@@ -1619,10 +1619,10 @@
         <v>45553</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1">
         <v>30</v>
@@ -1633,13 +1633,13 @@
         <v>45554</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E22" s="1">
         <v>60</v>
@@ -1650,13 +1650,13 @@
         <v>45555</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1664,13 +1664,13 @@
         <v>45556</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1">
         <v>80</v>
@@ -1681,13 +1681,13 @@
         <v>45557</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>45558</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1">
         <v>30</v>
@@ -1709,16 +1709,79 @@
         <v>45559</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="1">
-        <v>6</v>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>45560</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>45561</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>45562</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/2024每日记录.xlsx
+++ b/2024每日记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>多邻国</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>7～27</t>
+  </si>
+  <si>
+    <t>黑马p43</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1784,6 +1787,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/2024每日记录.xlsx
+++ b/2024每日记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>多邻国</t>
   </si>
@@ -1281,15 +1281,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.23076923076923" style="1"/>
+    <col min="1" max="1" width="10" style="1"/>
     <col min="2" max="2" width="13.2980769230769" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.2596153846154" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.3076923076923" style="1" customWidth="1"/>
@@ -1807,6 +1807,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>45577</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
